--- a/CH-119 Custom Grouping.xlsx
+++ b/CH-119 Custom Grouping.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A886C4BC-613A-4CEC-9FDC-FCFB643C1A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDF7782-21C2-42D5-9E0F-54D74D952600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Alt!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
+    <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Question</t>
   </si>
@@ -72,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +135,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,6 +194,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -291,11 +339,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,10 +419,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Intro_Hd" xfId="3" xr:uid="{0B2D65D1-02CC-415D-A73F-FCF508FBAF5B}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0B8F5EC5-7E0C-4D74-94F0-A47E3FB747A9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -467,8 +522,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1106365</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>51288</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -483,8 +538,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2094036" y="219808"/>
-          <a:ext cx="2624502" cy="3927230"/>
+          <a:off x="1913793" y="219808"/>
+          <a:ext cx="2439864" cy="3977054"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -904,12 +959,39 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="887" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{1F5C792F-3D73-41F1-B92E-B497E4D6D313}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1297,4 +1379,1372 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2E4EEA-A0DC-4D4C-BA86-72A0FD5579ED}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="3.109375" customWidth="1"/>
+    <col min="7" max="9" width="12.21875" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="K1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="N1" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="K2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="15">
+        <v>47</v>
+      </c>
+      <c r="D3" s="34">
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <v>99</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3">
+        <f>D3-C3</f>
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <f>E3-D3</f>
+        <v>37</v>
+      </c>
+      <c r="I3"/>
+      <c r="K3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="21">
+        <v>3</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="15">
+        <v>62</v>
+      </c>
+      <c r="D4" s="34">
+        <v>99</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4">
+        <f t="shared" ref="G4:G24" si="0">D4-C4</f>
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H24" si="1">E4-D4</f>
+        <v>-56</v>
+      </c>
+      <c r="I4"/>
+      <c r="K4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="21">
+        <v>2</v>
+      </c>
+      <c r="M4" s="13"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="15">
+        <v>99</v>
+      </c>
+      <c r="D5" s="34">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>52</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-56</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="25">
+        <v>43</v>
+      </c>
+      <c r="D6" s="34">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="I6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="25">
+        <v>52</v>
+      </c>
+      <c r="D7" s="34">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>72</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="25">
+        <v>65</v>
+      </c>
+      <c r="D8" s="34">
+        <v>72</v>
+      </c>
+      <c r="E8" s="9">
+        <v>110</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="25">
+        <v>72</v>
+      </c>
+      <c r="D9" s="34">
+        <v>110</v>
+      </c>
+      <c r="E9" s="9">
+        <v>106</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9"/>
+      <c r="K9" s="5"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="25">
+        <v>110</v>
+      </c>
+      <c r="D10" s="34">
+        <v>106</v>
+      </c>
+      <c r="E10" s="9">
+        <v>105</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10"/>
+      <c r="K10" s="5"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="17">
+        <v>106</v>
+      </c>
+      <c r="D11" s="34">
+        <v>105</v>
+      </c>
+      <c r="E11" s="9">
+        <v>103</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11"/>
+      <c r="K11" s="5"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="17">
+        <v>105</v>
+      </c>
+      <c r="D12" s="34">
+        <v>103</v>
+      </c>
+      <c r="E12" s="10">
+        <v>100</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12"/>
+      <c r="K12" s="5"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="17">
+        <v>103</v>
+      </c>
+      <c r="D13" s="34">
+        <v>100</v>
+      </c>
+      <c r="E13" s="10">
+        <v>85</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="17">
+        <v>100</v>
+      </c>
+      <c r="D14" s="34">
+        <v>85</v>
+      </c>
+      <c r="E14" s="10">
+        <v>90</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="17">
+        <v>85</v>
+      </c>
+      <c r="D15" s="34">
+        <v>90</v>
+      </c>
+      <c r="E15" s="10">
+        <v>80</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-10</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="26">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="27">
+        <v>90</v>
+      </c>
+      <c r="D16" s="34">
+        <v>80</v>
+      </c>
+      <c r="E16" s="10">
+        <v>61</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>-19</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="26">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="27">
+        <v>80</v>
+      </c>
+      <c r="D17" s="34">
+        <v>61</v>
+      </c>
+      <c r="E17" s="10">
+        <v>60</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>-19</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="26">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="27">
+        <v>61</v>
+      </c>
+      <c r="D18" s="34">
+        <v>60</v>
+      </c>
+      <c r="E18" s="10">
+        <v>55</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="26">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="27">
+        <v>60</v>
+      </c>
+      <c r="D19" s="34">
+        <v>55</v>
+      </c>
+      <c r="E19" s="10">
+        <v>52</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="26">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="27">
+        <v>55</v>
+      </c>
+      <c r="D20" s="34">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1">
+        <v>75</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="26">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="27">
+        <v>52</v>
+      </c>
+      <c r="D21" s="34">
+        <v>75</v>
+      </c>
+      <c r="E21" s="1">
+        <v>84</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="18">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="19">
+        <v>75</v>
+      </c>
+      <c r="D22" s="34">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="R22" s="2"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="18">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="19">
+        <v>84</v>
+      </c>
+      <c r="D23" s="34">
+        <v>94</v>
+      </c>
+      <c r="E23" s="1">
+        <v>102</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="18">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="19">
+        <v>94</v>
+      </c>
+      <c r="D24" s="34">
+        <v>102</v>
+      </c>
+      <c r="E24" s="1">
+        <v>105</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="18">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="19">
+        <v>102</v>
+      </c>
+      <c r="D25" s="35">
+        <v>105</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="22">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="23">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="K1:L1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="N1" r:id="rId1" xr:uid="{371D50A9-3C38-4FE8-95F7-B08978448F1D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D54465A-0CF5-4FAB-9432-AD0BF13880E5}">
+  <dimension ref="A1:N52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="E1"/>
+      <c r="G1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="J1" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="15">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="21">
+        <v>3</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="15">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="15">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="25">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="25">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="25">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="25">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="25">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="5"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="17">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="17">
+        <v>105</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="5"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="17">
+        <v>103</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="17">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="17">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="26">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="27">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="26">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="27">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="26">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="27">
+        <v>61</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="26">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="27">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="26">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="27">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="26">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="27">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="18">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="19">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="18">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="19">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="18">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="19">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="18">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="19">
+        <v>102</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="22">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="23">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="str" cm="1">
+        <f t="array" aca="1" ref="B29:C30" ca="1">_xlfn.LET(
+    _xlpm.d, C3:C26,
+    _xlpm.up, _xlfn.SCAN(0, _xlpm.d, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, IF(_xlpm.v &gt; OFFSET(_xlpm.v, -1, ), _xlpm.a + 1, _xlpm.a * 0))),
+    _xlpm.dw, _xlfn.SCAN(0, _xlpm.d, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, IF(_xlpm.v &lt; OFFSET(_xlpm.v, -1, ), _xlpm.a + 1, _xlpm.a * 0))),
+    _xlfn.VSTACK(
+        _xlfn.HSTACK("Upward", COUNTA(_xlfn._xlws.FILTER(_xlpm.up, _xlpm.up = 2))),
+        _xlfn.HSTACK("Downward", COUNTA(_xlfn._xlws.FILTER(_xlpm.dw, _xlpm.dw = 2)))
+    )
+)</f>
+        <v>Upward</v>
+      </c>
+      <c r="C29">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="E29" cm="1">
+        <f t="array" aca="1" ref="E29:E52" ca="1">_xlfn.SCAN(0, C3:C26, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, IF(_xlpm.v &gt; OFFSET(_xlpm.v, -1, ), _xlpm.a + 1, _xlpm.a * 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="F29" cm="1">
+        <f t="array" aca="1" ref="F29:F52" ca="1">_xlfn.SCAN(0, C3:C26, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, IF(_xlpm.v &lt; OFFSET(_xlpm.v, -1, ), _xlpm.a + 1, _xlpm.a * 0)))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="str">
+        <f ca="1"/>
+        <v>Downward</v>
+      </c>
+      <c r="C30">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{C0006E2A-78A3-4B32-A935-5DD26BA50073}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-119 Custom Grouping.xlsx
+++ b/CH-119 Custom Grouping.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDF7782-21C2-42D5-9E0F-54D74D952600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944F53F8-7E0E-4B0D-8A5F-7159B7F93300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
     <sheet name="Alt" sheetId="4" r:id="rId3"/>
+    <sheet name="Alt2" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Alt!$B$2:$D$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Alt2'!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">EDA!$B$2:$D$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$B$2:$D$26</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t>Question</t>
   </si>
@@ -93,6 +95,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7245175317600841728/</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -961,7 +969,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="887" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="534" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -1385,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2E4EEA-A0DC-4D4C-BA86-72A0FD5579ED}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -2099,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D54465A-0CF5-4FAB-9432-AD0BF13880E5}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2747,4 +2755,861 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2E3698-31CE-4EC9-AAD3-A092FB84EB43}">
+  <dimension ref="A1:N52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="E1"/>
+      <c r="G1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="J1" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2"/>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14">
+        <v>45292</v>
+      </c>
+      <c r="C3" s="15">
+        <v>47</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3"/>
+      <c r="G3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="21">
+        <v>3</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14">
+        <v>45293</v>
+      </c>
+      <c r="C4" s="15">
+        <v>62</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4"/>
+      <c r="G4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14">
+        <v>45294</v>
+      </c>
+      <c r="C5" s="15">
+        <v>99</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="24">
+        <v>45295</v>
+      </c>
+      <c r="C6" s="25">
+        <v>43</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="24">
+        <v>45296</v>
+      </c>
+      <c r="C7" s="25">
+        <v>52</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="24">
+        <v>45297</v>
+      </c>
+      <c r="C8" s="25">
+        <v>65</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="24">
+        <v>45298</v>
+      </c>
+      <c r="C9" s="25">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9"/>
+      <c r="G9" s="5"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="24">
+        <v>45299</v>
+      </c>
+      <c r="C10" s="25">
+        <v>110</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10"/>
+      <c r="G10" s="5"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="16">
+        <v>45300</v>
+      </c>
+      <c r="C11" s="17">
+        <v>106</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11"/>
+      <c r="G11" s="5"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16">
+        <v>45301</v>
+      </c>
+      <c r="C12" s="17">
+        <v>105</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
+      <c r="G12" s="5"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="16">
+        <v>45302</v>
+      </c>
+      <c r="C13" s="17">
+        <v>103</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="16">
+        <v>45303</v>
+      </c>
+      <c r="C14" s="17">
+        <v>100</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16">
+        <v>45304</v>
+      </c>
+      <c r="C15" s="17">
+        <v>85</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="26">
+        <v>45305</v>
+      </c>
+      <c r="C16" s="27">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="26">
+        <v>45306</v>
+      </c>
+      <c r="C17" s="27">
+        <v>80</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="26">
+        <v>45307</v>
+      </c>
+      <c r="C18" s="27">
+        <v>61</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="26">
+        <v>45308</v>
+      </c>
+      <c r="C19" s="27">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="26">
+        <v>45309</v>
+      </c>
+      <c r="C20" s="27">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="26">
+        <v>45310</v>
+      </c>
+      <c r="C21" s="27">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="18">
+        <v>45311</v>
+      </c>
+      <c r="C22" s="19">
+        <v>75</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="1"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="18">
+        <v>45312</v>
+      </c>
+      <c r="C23" s="19">
+        <v>84</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="18">
+        <v>45313</v>
+      </c>
+      <c r="C24" s="19">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="18">
+        <v>45314</v>
+      </c>
+      <c r="C25" s="19">
+        <v>102</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="22">
+        <v>45315</v>
+      </c>
+      <c r="C26" s="23">
+        <v>105</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="str" cm="1">
+        <f t="array" ref="B29:C30">_xlfn.LET(
+    _xlpm.d, N(C3:C26 &gt; C2:C25),
+    _xlpm.r, ROW(B3:B26),
+    _xlpm.F, _xlfn.LAMBDA(_xlpm.i, SUM(N(FREQUENCY(IF(_xlpm.i, _xlpm.r), IF(1 - _xlpm.i, _xlpm.r)) &gt; 1))),
+    _xlfn.HSTACK(_xlfn.VSTACK("Up", "Down") &amp; "ward", _xlfn.VSTACK(_xlpm.F(_xlpm.d), _xlpm.F(1 - _xlpm.d)))
+)</f>
+        <v>Upward</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="4" cm="1">
+        <f t="array" ref="E29:E52">_xlfn.LET(
+    _xlpm.d, N(C3:C26 &gt; C2:C25),
+    _xlpm.r, ROW(B3:B26),
+    _xlpm.F, _xlfn.LAMBDA(_xlpm.i, SUM(N(FREQUENCY(IF(_xlpm.i, _xlpm.r), IF(1 - _xlpm.i, _xlpm.r)) &gt; 1))),
+    _xlpm.d
+)</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" cm="1">
+        <f t="array" ref="F29:F52">ROW(B3:B26)</f>
+        <v>3</v>
+      </c>
+      <c r="G29" s="5" t="b" cm="1">
+        <f t="array" ref="G29:G52">IF(_xlfn.ANCHORARRAY(E29),_xlfn.ANCHORARRAY(F29))</f>
+        <v>0</v>
+      </c>
+      <c r="H29" cm="1">
+        <f t="array" ref="H29:H52">IF(1-_xlfn.ANCHORARRAY(E29),_xlfn.ANCHORARRAY(F29))</f>
+        <v>3</v>
+      </c>
+      <c r="J29" cm="1">
+        <f t="array" ref="J29:J41">N(FREQUENCY(_xlfn.ANCHORARRAY(G29),_xlfn.ANCHORARRAY(H29)))</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>N(J29&gt;1)</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>SUM(K29:K41)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="str">
+        <v>Downward</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4</v>
+      </c>
+      <c r="G30" s="5">
+        <v>4</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" ref="K30:K41" si="0">N(J30&gt;1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5</v>
+      </c>
+      <c r="G31" s="5">
+        <v>5</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4">
+        <v>6</v>
+      </c>
+      <c r="G32" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4">
+        <v>7</v>
+      </c>
+      <c r="G33" s="5">
+        <v>7</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>8</v>
+      </c>
+      <c r="G34" s="5">
+        <v>8</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>9</v>
+      </c>
+      <c r="G35" s="5">
+        <v>9</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5">
+        <v>10</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>11</v>
+      </c>
+      <c r="G37" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>13</v>
+      </c>
+      <c r="G39" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>13</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>14</v>
+      </c>
+      <c r="G40" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>14</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>15</v>
+      </c>
+      <c r="G41" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>15</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <v>16</v>
+      </c>
+      <c r="G42" s="5">
+        <v>16</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>17</v>
+      </c>
+      <c r="G43" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>18</v>
+      </c>
+      <c r="G44" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>19</v>
+      </c>
+      <c r="G45" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>20</v>
+      </c>
+      <c r="G46" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>21</v>
+      </c>
+      <c r="G47" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="4">
+        <v>22</v>
+      </c>
+      <c r="G48" s="5">
+        <v>22</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="4">
+        <v>23</v>
+      </c>
+      <c r="G49" s="5">
+        <v>23</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4">
+        <v>24</v>
+      </c>
+      <c r="G50" s="5">
+        <v>24</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4">
+        <v>25</v>
+      </c>
+      <c r="G51" s="5">
+        <v>25</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
+        <v>26</v>
+      </c>
+      <c r="G52" s="5">
+        <v>26</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J1" r:id="rId1" xr:uid="{8776B685-E906-4BA0-ADFF-FB973A80BAD6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/CH-119 Custom Grouping.xlsx
+++ b/CH-119 Custom Grouping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944F53F8-7E0E-4B0D-8A5F-7159B7F93300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5B01B3-1E63-44AA-A603-1520C8D09F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2759,10 +2759,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2E3698-31CE-4EC9-AAD3-A092FB84EB43}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2773,6 +2773,7 @@
     <col min="4" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3027,7 +3028,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="26">
         <v>45306</v>
@@ -3038,7 +3039,7 @@
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="26">
         <v>45307</v>
@@ -3049,7 +3050,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="26">
         <v>45308</v>
@@ -3060,7 +3061,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="26">
         <v>45309</v>
@@ -3071,7 +3072,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="26">
         <v>45310</v>
@@ -3082,7 +3083,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="18">
         <v>45311</v>
@@ -3094,7 +3095,7 @@
       <c r="E22" s="1"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="18">
         <v>45312</v>
@@ -3105,7 +3106,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B24" s="18">
         <v>45313</v>
       </c>
@@ -3115,7 +3116,7 @@
       <c r="D24" s="9"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="18">
         <v>45314</v>
       </c>
@@ -3125,7 +3126,7 @@
       <c r="D25" s="9"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="22">
         <v>45315</v>
       </c>
@@ -3134,7 +3135,7 @@
       </c>
       <c r="D26" s="9"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E28" s="4" t="s">
         <v>9</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="str" cm="1">
         <f t="array" ref="B29:C30">_xlfn.LET(
     _xlpm.d, N(C3:C26 &gt; C2:C25),
@@ -3188,8 +3189,15 @@
         <f>SUM(K29:K41)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" cm="1">
+        <f t="array" ref="O29:O41">FREQUENCY(_xlfn.ANCHORARRAY(G29),N29:N40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="str">
         <v>Downward</v>
       </c>
@@ -3215,8 +3223,14 @@
         <f t="shared" ref="K30:K41" si="0">N(J30&gt;1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N30">
+        <v>6</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E31" s="4">
         <v>1</v>
       </c>
@@ -3236,8 +3250,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N31">
+        <v>11</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E32" s="4">
         <v>0</v>
       </c>
@@ -3257,8 +3277,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <v>12</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E33" s="4">
         <v>1</v>
       </c>
@@ -3278,8 +3304,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <v>13</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E34" s="4">
         <v>1</v>
       </c>
@@ -3299,8 +3331,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <v>14</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E35" s="4">
         <v>1</v>
       </c>
@@ -3320,8 +3358,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <v>15</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E36" s="4">
         <v>1</v>
       </c>
@@ -3341,8 +3385,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>17</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E37" s="4">
         <v>0</v>
       </c>
@@ -3362,8 +3412,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <v>18</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E38" s="4">
         <v>0</v>
       </c>
@@ -3383,8 +3439,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <v>19</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E39" s="4">
         <v>0</v>
       </c>
@@ -3404,8 +3466,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <v>20</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E40" s="4">
         <v>0</v>
       </c>
@@ -3425,8 +3493,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <v>21</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E41" s="4">
         <v>0</v>
       </c>
@@ -3446,8 +3520,11 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="O41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E42" s="4">
         <v>1</v>
       </c>
@@ -3461,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E43" s="4">
         <v>0</v>
       </c>
@@ -3475,7 +3552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E44" s="4">
         <v>0</v>
       </c>
@@ -3489,7 +3566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E45" s="4">
         <v>0</v>
       </c>
@@ -3503,7 +3580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E46" s="4">
         <v>0</v>
       </c>
@@ -3517,7 +3594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E47" s="4">
         <v>0</v>
       </c>
@@ -3531,7 +3608,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E48" s="4">
         <v>1</v>
       </c>

--- a/CH-119 Custom Grouping.xlsx
+++ b/CH-119 Custom Grouping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5B01B3-1E63-44AA-A603-1520C8D09F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C7DB56-BEE3-448F-86E5-7C323297AD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>Question</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t>This is the best solution.</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,6 +415,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -424,12 +432,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -985,6 +987,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
@@ -998,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1013,16 +1018,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
       <c r="E1"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="J1" s="32" t="s">
+      <c r="H1" s="34"/>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1393,8 +1398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2E4EEA-A0DC-4D4C-BA86-72A0FD5579ED}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,20 +1415,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="N1" s="32" t="s">
+      <c r="L1" s="34"/>
+      <c r="N1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1434,7 +1439,7 @@
       <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="3"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -1454,7 +1459,7 @@
       <c r="C3" s="15">
         <v>47</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="29">
         <v>62</v>
       </c>
       <c r="E3">
@@ -1489,7 +1494,7 @@
       <c r="C4" s="15">
         <v>62</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="29">
         <v>99</v>
       </c>
       <c r="E4">
@@ -1524,7 +1529,7 @@
       <c r="C5" s="15">
         <v>99</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="29">
         <v>43</v>
       </c>
       <c r="E5">
@@ -1555,7 +1560,7 @@
       <c r="C6" s="25">
         <v>43</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="29">
         <v>52</v>
       </c>
       <c r="E6">
@@ -1586,7 +1591,7 @@
       <c r="C7" s="25">
         <v>52</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="29">
         <v>65</v>
       </c>
       <c r="E7">
@@ -1613,7 +1618,7 @@
       <c r="C8" s="25">
         <v>65</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="29">
         <v>72</v>
       </c>
       <c r="E8" s="9">
@@ -1645,7 +1650,7 @@
       <c r="C9" s="25">
         <v>72</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="29">
         <v>110</v>
       </c>
       <c r="E9" s="9">
@@ -1677,7 +1682,7 @@
       <c r="C10" s="25">
         <v>110</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="29">
         <v>106</v>
       </c>
       <c r="E10" s="9">
@@ -1709,7 +1714,7 @@
       <c r="C11" s="17">
         <v>106</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="29">
         <v>105</v>
       </c>
       <c r="E11" s="9">
@@ -1741,7 +1746,7 @@
       <c r="C12" s="17">
         <v>105</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="29">
         <v>103</v>
       </c>
       <c r="E12" s="10">
@@ -1774,7 +1779,7 @@
       <c r="C13" s="17">
         <v>103</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="29">
         <v>100</v>
       </c>
       <c r="E13" s="10">
@@ -1798,7 +1803,7 @@
       <c r="C14" s="17">
         <v>100</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="29">
         <v>85</v>
       </c>
       <c r="E14" s="10">
@@ -1823,7 +1828,7 @@
       <c r="C15" s="17">
         <v>85</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="29">
         <v>90</v>
       </c>
       <c r="E15" s="10">
@@ -1848,7 +1853,7 @@
       <c r="C16" s="27">
         <v>90</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="29">
         <v>80</v>
       </c>
       <c r="E16" s="10">
@@ -1873,7 +1878,7 @@
       <c r="C17" s="27">
         <v>80</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="29">
         <v>61</v>
       </c>
       <c r="E17" s="10">
@@ -1898,7 +1903,7 @@
       <c r="C18" s="27">
         <v>61</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="29">
         <v>60</v>
       </c>
       <c r="E18" s="10">
@@ -1923,7 +1928,7 @@
       <c r="C19" s="27">
         <v>60</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="29">
         <v>55</v>
       </c>
       <c r="E19" s="10">
@@ -1948,7 +1953,7 @@
       <c r="C20" s="27">
         <v>55</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="29">
         <v>52</v>
       </c>
       <c r="E20" s="1">
@@ -1973,7 +1978,7 @@
       <c r="C21" s="27">
         <v>52</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="29">
         <v>75</v>
       </c>
       <c r="E21" s="1">
@@ -1998,7 +2003,7 @@
       <c r="C22" s="19">
         <v>75</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="29">
         <v>84</v>
       </c>
       <c r="E22" s="1">
@@ -2024,7 +2029,7 @@
       <c r="C23" s="19">
         <v>84</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="29">
         <v>94</v>
       </c>
       <c r="E23" s="1">
@@ -2048,7 +2053,7 @@
       <c r="C24" s="19">
         <v>94</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="29">
         <v>102</v>
       </c>
       <c r="E24" s="1">
@@ -2072,7 +2077,7 @@
       <c r="C25" s="19">
         <v>102</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="30">
         <v>105</v>
       </c>
       <c r="E25" s="1"/>
@@ -2107,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D54465A-0CF5-4FAB-9432-AD0BF13880E5}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2122,16 +2127,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
       <c r="E1"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="J1" s="32" t="s">
+      <c r="H1" s="34"/>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2479,6 +2484,11 @@
         <v>105</v>
       </c>
       <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="str" cm="1">
@@ -2761,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2E3698-31CE-4EC9-AAD3-A092FB84EB43}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2777,16 +2787,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="7" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="29"/>
+      <c r="B1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="32"/>
       <c r="E1"/>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="J1" s="32" t="s">
+      <c r="H1" s="34"/>
+      <c r="J1" s="28" t="s">
         <v>8</v>
       </c>
     </row>
